--- a/analysis/5.3/best_points.xlsx
+++ b/analysis/5.3/best_points.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/5.3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738D01A-E858-9748-89A2-171EBA129AF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -417,41 +472,347 @@
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>161.3266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>161.32660000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>90.09999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="C3">
         <v>0.1</v>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
-        <v>161.3908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>161.3638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>40.1</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
+      <c r="E4">
+        <v>161.3999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40.1</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>161.40989999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>40.1</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>161.43989999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>40.1</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>161.44290000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>40.1</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8">
+        <v>161.4666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>90.1</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>161.08789999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>90.1</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>161.1902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>90.1</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>161.2637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>90.1</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>0.11</v>
+      </c>
+      <c r="E12">
+        <v>161.39080000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>90.1</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.12</v>
+      </c>
+      <c r="E13">
+        <v>161.4247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>120.1</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>0.13</v>
+      </c>
+      <c r="E14">
+        <v>166.6456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>110.1</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E15">
+        <v>183.22569999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>110.1</v>
+      </c>
+      <c r="C16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.15</v>
+      </c>
+      <c r="E16">
+        <v>183.2157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>110.1</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0.16</v>
+      </c>
+      <c r="E17">
+        <v>167.58279999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>110.1</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.17</v>
+      </c>
+      <c r="E18">
+        <v>167.68289999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>110.1</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.18</v>
+      </c>
+      <c r="E19">
+        <v>167.75380000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>100.1</v>
       </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0.19</v>
+      </c>
+      <c r="E20">
+        <v>183.31379999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>100.1</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>168.6626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>100.1</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
         <v>0.21</v>
       </c>
-      <c r="E4">
-        <v>168.7584</v>
+      <c r="E22">
+        <v>168.75839999999999</v>
       </c>
     </row>
   </sheetData>
